--- a/output/date/2021-12-19/2021-12-19_마우스.xlsx
+++ b/output/date/2021-12-19/2021-12-19_마우스.xlsx
@@ -846,7 +846,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>37850</t>
+          <t>37830</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>세컨드찬스 긱스타 GM900 3325 LED 게이밍 마우스</t>
+          <t>로지텍G G302 Daedalus Prime</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19187823193</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8134705034</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1918782/19187823193.20200612120756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8134705/8134705034.20211210121403.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>긱스타</t>
+          <t>로지텍G</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>세컨드찬스</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>로지텍G G302 Daedalus Prime</t>
+          <t>세컨드찬스 긱스타 GM900 3325 LED 게이밍 마우스</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8134705034</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19187823193</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8134705/8134705034.20211210121403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1918782/19187823193.20200612120756.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>로지텍G</t>
+          <t>긱스타</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>세컨드찬스</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>24880</t>
+          <t>24860</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3657,22 +3657,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 SPA-MMG1PUB 게이밍마우스</t>
+          <t>로지텍 G PRO 게이밍 마우스</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22366713052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11309020076</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2236671/22366713052.20200527173225.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1130902/11309020076.20170406170430.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>69350</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>로지텍</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>로지텍 G PRO 게이밍 마우스</t>
+          <t>로지텍 M90</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11309020076</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6777128876</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1130902/11309020076.20170406170430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6777128/6777128876.20210618110511.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>69370</t>
+          <t>4910</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3789,22 +3789,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>로지텍 M90</t>
+          <t>삼성전자 삼성 SPA-MMG1PUB 게이밍마우스</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6777128876</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22366713052</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6777128/6777128876.20210618110511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2236671/22366713052.20200527173225.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3820,12 +3820,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23490</t>
+          <t>23480</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>52360</t>
+          <t>52330</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>스카이디지탈 NMOUSE 4K REMASTER</t>
+          <t>플레오맥스 MO-ER700 인체공학 버티칼 마우스</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23891813522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26232573526</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389181/23891813522.20200825100651.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2623257/26232573526.20210304120706.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>19000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>스카이디지탈</t>
+          <t>플레오맥스</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>스카이디지탈</t>
+          <t>플레오맥스</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4449,22 +4449,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>플레오맥스 MO-ER700 인체공학 버티칼 마우스</t>
+          <t>스카이디지탈 NMOUSE 4K REMASTER</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26232573526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23891813522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2623257/26232573526.20210304120706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389181/23891813522.20200825100651.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>19000</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4480,12 +4480,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>플레오맥스</t>
+          <t>스카이디지탈</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>플레오맥스</t>
+          <t>스카이디지탈</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>12590</t>
+          <t>12570</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6495,22 +6495,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>지클릭커 GM-M250 LED 무소음 게이밍 마우스</t>
+          <t>ROCCAT KONE PURE ULTRA i</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985762773</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22100501353</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898576/18985762773.20200101140950.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2210050/22100501353.20210623094204.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>지클릭커</t>
+          <t>ROCCAT</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>지클릭커</t>
+          <t>ROCCAT</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ROCCAT KONE PURE ULTRA i</t>
+          <t>지클릭커 GM-M250 LED 무소음 게이밍 마우스</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22100501353</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985762773</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2210050/22100501353.20210623094204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898576/18985762773.20200101140950.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6592,12 +6592,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ROCCAT</t>
+          <t>지클릭커</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>ROCCAT</t>
+          <t>지클릭커</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
